--- a/Tarjeta naranja.xlsx
+++ b/Tarjeta naranja.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genes\Documents\MELINA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genes\Documents\MELINA\Tarjetas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC95D61-3995-497E-BE02-922F69618C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C2DE2F-9021-4AFD-A5D2-9A0F1A11CAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MARZO" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="90">
   <si>
     <t>Fecha</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>Oulton</t>
+  </si>
+  <si>
+    <t>Super Mami</t>
   </si>
 </sst>
 </file>
@@ -818,6 +821,18 @@
     <xf numFmtId="165" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -843,18 +858,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2475,10 +2478,10 @@
       <c r="J1" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
@@ -2492,16 +2495,16 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2820,11 +2823,11 @@
     <row r="22" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="68"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="72"/>
       <c r="G22" s="11"/>
       <c r="H22" s="7"/>
       <c r="I22" s="19"/>
@@ -3942,10 +3945,10 @@
       <c r="J1" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
@@ -3959,16 +3962,16 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -5691,10 +5694,10 @@
       <c r="J1" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
@@ -5708,16 +5711,16 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -6162,7 +6165,7 @@
         <v>62</v>
       </c>
       <c r="F27" s="11"/>
-      <c r="G27" s="73">
+      <c r="G27" s="64">
         <v>22273.81</v>
       </c>
       <c r="H27" s="7"/>
@@ -6185,7 +6188,7 @@
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="65" t="s">
         <v>83</v>
       </c>
       <c r="F29" s="11"/>
@@ -7467,10 +7470,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E58DD-ACEA-496C-9803-E4DF928E89F7}">
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:J165"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:I20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7498,10 +7501,10 @@
       <c r="J1" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
@@ -7515,16 +7518,16 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -7865,115 +7868,140 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
-        <v>44372</v>
+        <v>44359</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="23">
+        <v>9059.52</v>
+      </c>
+      <c r="F21" s="24">
+        <v>3019.84</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="25">
+        <v>3019.64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
+        <v>44365</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="23">
+        <v>2853.09</v>
+      </c>
+      <c r="F22" s="24">
+        <v>951.03</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="25">
+        <v>951.03</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <v>44372</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E23" s="23">
         <v>769.1</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F23" s="24">
         <v>769.1</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21" t="s">
+      <c r="G23" s="20"/>
+      <c r="H23" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37" t="str">
-        <f>IF(AND(E22="",F22=""),"",I21+E22-F22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37" t="str">
+        <f>IF(AND(E24="",F24=""),"",I23+E24-F24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41">
-        <f>SUM(E9:E21)</f>
-        <v>115519.22</v>
-      </c>
-      <c r="F23" s="43">
-        <f>SUM(F9:F21)</f>
-        <v>21965.68</v>
-      </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45">
-        <f>SUM(I9:I21)</f>
-        <v>15544.25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="30"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="19" t="str">
-        <f t="shared" ref="I25:I88" si="0">IF(AND(E25="",F25=""),"",I24+E25-F25)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="53">
-        <f>SUM(F9-2000,F10-892.67,F16-250,F11,F14,F15,F17,F20/3)</f>
-        <v>12499.373333333333</v>
-      </c>
-      <c r="D27" s="51"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41">
+        <f>SUM(E9:E23)</f>
+        <v>127431.83</v>
+      </c>
+      <c r="F25" s="43">
+        <f>SUM(F9:F23)</f>
+        <v>25936.55</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45">
+        <f>SUM(I9:I23)</f>
+        <v>19514.919999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="7"/>
+      <c r="I27" s="19" t="str">
+        <f t="shared" ref="I27:I90" si="0">IF(AND(E27="",F27=""),"",I26+E27-F27)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="62" t="s">
+        <v>65</v>
+      </c>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -7983,28 +8011,24 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="10"/>
+    <row r="29" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="53">
+        <f>SUM(F9-2000,F10-892.67,F16-250,F11,F14,F23,F15,F17,F20/4,F21)</f>
+        <v>16002.202500000001</v>
+      </c>
+      <c r="D29" s="51"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="53">
-        <f>SUM(2000,F10-566.66,F16-450,F18,F19,F12,F13,F20/3)</f>
-        <v>7541.0333333333338</v>
-      </c>
-      <c r="D30" s="51"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -8015,8 +8039,8 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="7"/>
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
@@ -8027,10 +8051,15 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
+    <row r="32" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="53">
+        <f>SUM(2000,F10-566.66,F16-450,F18,F19,F12,F13,F20/4,F22)</f>
+        <v>8205.9525000000012</v>
+      </c>
+      <c r="D32" s="51"/>
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -8041,8 +8070,8 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="7"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
@@ -8777,7 +8806,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="7"/>
       <c r="I89" s="19" t="str">
-        <f t="shared" ref="I89:I109" si="1">IF(AND(E89="",F89=""),"",I88+E89-F89)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -8790,7 +8819,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="7"/>
       <c r="I90" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -8803,7 +8832,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="7"/>
       <c r="I91" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I91:I111" si="1">IF(AND(E91="",F91=""),"",I90+E91-F91)</f>
         <v/>
       </c>
     </row>
@@ -9042,12 +9071,30 @@
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="9"/>
@@ -9256,6 +9303,14 @@
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9301,10 +9356,10 @@
       <c r="J1" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
@@ -9318,16 +9373,16 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -9612,10 +9667,10 @@
         <v>10009.373333333333</v>
       </c>
       <c r="D21" s="51"/>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="70"/>
+      <c r="F21" s="74"/>
       <c r="G21" s="11"/>
       <c r="H21" s="7"/>
       <c r="I21" s="19"/>
@@ -10923,7 +10978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA3BA41-BCFA-47EA-B480-8B6D4D2F7D08}">
   <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -10952,10 +11007,10 @@
       <c r="J1" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
@@ -10969,16 +11024,16 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -11193,15 +11248,15 @@
       <c r="B18" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C18" s="67">
         <f>SUM(F9-2000,F10-250,F12/3,F13)</f>
         <v>7461.8133333333344</v>
       </c>
       <c r="D18" s="51"/>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="11"/>
       <c r="H18" s="7"/>
       <c r="I18" s="19"/>
@@ -11236,7 +11291,7 @@
       <c r="B21" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="66">
         <f>SUM(F9-5000,F10-450,F11,F12/3)</f>
         <v>4488.7033333333338</v>
       </c>
@@ -12538,10 +12593,10 @@
       <c r="J1" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
@@ -12555,16 +12610,16 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -12725,10 +12780,10 @@
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="76"/>
       <c r="G17" s="11"/>
       <c r="H17" s="7"/>
       <c r="I17" s="19"/>

--- a/Tarjeta naranja.xlsx
+++ b/Tarjeta naranja.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genes\Documents\MELINA\Tarjetas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C2DE2F-9021-4AFD-A5D2-9A0F1A11CAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B917E813-84C1-40FD-AFAC-9C56BA05BA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MARZO" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="97">
   <si>
     <t>Fecha</t>
   </si>
@@ -297,6 +297,27 @@
   <si>
     <t>Super Mami</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Medialunas</t>
+  </si>
+  <si>
+    <t>PedidoYa</t>
+  </si>
+  <si>
+    <t>PAGADO EL 30/06 26697,6</t>
+  </si>
+  <si>
+    <t>Mucipinalidad auto</t>
+  </si>
+  <si>
+    <t>1 de 6</t>
+  </si>
+  <si>
+    <t>Municipalidad</t>
+  </si>
 </sst>
 </file>
 
@@ -309,7 +330,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00;[Red]&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="167" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +450,20 @@
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -648,7 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -831,6 +866,13 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2478,10 +2520,10 @@
       <c r="J1" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
@@ -2495,16 +2537,16 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2823,11 +2865,11 @@
     <row r="22" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="70" t="s">
+      <c r="D22" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="75"/>
       <c r="G22" s="11"/>
       <c r="H22" s="7"/>
       <c r="I22" s="19"/>
@@ -3945,10 +3987,10 @@
       <c r="J1" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
@@ -3962,16 +4004,16 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -5694,10 +5736,10 @@
       <c r="J1" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
@@ -5711,16 +5753,16 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -7470,9 +7512,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E58DD-ACEA-496C-9803-E4DF928E89F7}">
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -7501,10 +7543,10 @@
       <c r="J1" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
@@ -7518,16 +7560,16 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -7816,250 +7858,258 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
-        <v>44349</v>
+        <v>44344</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E19" s="23">
-        <v>3980</v>
+        <v>450</v>
       </c>
       <c r="F19" s="24">
-        <v>995.99</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>52</v>
+        <v>450</v>
+      </c>
+      <c r="G19" s="20">
+        <v>1</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="25">
-        <v>995.99</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
-        <v>44356</v>
+        <v>44349</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="23">
-        <v>10300</v>
+        <v>3980</v>
       </c>
       <c r="F20" s="24">
-        <v>3433.33</v>
+        <v>995.99</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="I20" s="25">
-        <v>3433.33</v>
+        <v>995.99</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
-        <v>44359</v>
+        <v>44356</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E21" s="23">
-        <v>9059.52</v>
+        <v>10300</v>
       </c>
       <c r="F21" s="24">
-        <v>3019.84</v>
+        <v>3433.33</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>28</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I21" s="25">
-        <v>3019.64</v>
+        <v>3433.33</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
-        <v>44365</v>
+        <v>44359</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="E22" s="23">
-        <v>2853.09</v>
+        <v>9059.52</v>
       </c>
       <c r="F22" s="24">
-        <v>951.03</v>
+        <v>3019.84</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="I22" s="25">
-        <v>951.03</v>
+        <v>3019.64</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
-        <v>44372</v>
+        <v>44365</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="23">
+        <v>2853.09</v>
+      </c>
+      <c r="F23" s="24">
+        <v>951.03</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="25">
+        <v>951.03</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
+        <v>44372</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E24" s="23">
         <v>769.1</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F24" s="24">
         <v>769.1</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21" t="s">
+      <c r="G24" s="20"/>
+      <c r="H24" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37" t="str">
-        <f>IF(AND(E24="",F24=""),"",I23+E24-F24)</f>
-        <v/>
-      </c>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37" t="str">
+        <f>IF(AND(E25="",F25=""),"",I24+E25-F25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41">
-        <f>SUM(E9:E23)</f>
-        <v>127431.83</v>
-      </c>
-      <c r="F25" s="43">
-        <f>SUM(F9:F23)</f>
-        <v>25936.55</v>
-      </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45">
-        <f>SUM(I9:I23)</f>
+      <c r="C26" s="38"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41">
+        <f>SUM(E9:E24)</f>
+        <v>127881.83</v>
+      </c>
+      <c r="F26" s="43">
+        <f>SUM(F9:F24)</f>
+        <v>26386.55</v>
+      </c>
+      <c r="G26" s="42"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45">
+        <f>SUM(I9:I24)</f>
         <v>19514.919999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="30"/>
-    </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="19" t="str">
-        <f t="shared" ref="I27:I90" si="0">IF(AND(E27="",F27=""),"",I26+E27-F27)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="62" t="s">
-        <v>65</v>
-      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="7"/>
       <c r="I28" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I28:I91" si="0">IF(AND(E28="",F28=""),"",I27+E28-F28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="53">
-        <f>SUM(F9-2000,F10-892.67,F16-250,F11,F14,F23,F15,F17,F20/4,F21)</f>
-        <v>16002.202500000001</v>
-      </c>
-      <c r="D29" s="51"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="10"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="I29" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="53">
+        <f>SUM(F9-2000,F10-892.67,F16-250,F11,F14,F24/2,F15,F17,F21/4,F22)</f>
+        <v>15617.6525</v>
+      </c>
+      <c r="D30" s="51"/>
+      <c r="E30" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="70"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="53">
-        <f>SUM(2000,F10-566.66,F16-450,F18,F19,F12,F13,F20/4,F22)</f>
-        <v>8205.9525000000012</v>
-      </c>
-      <c r="D32" s="51"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -8069,10 +8119,15 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="7"/>
+    <row r="33" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="53">
+        <f>SUM(2000,F10-566.66,F16-450,F18,F19,F20,F12,F13,F21/4,F23,F24/2)</f>
+        <v>9040.5025000000005</v>
+      </c>
+      <c r="D33" s="51"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -8083,8 +8138,8 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="7"/>
       <c r="E34" s="10"/>
       <c r="F34" s="11"/>
@@ -8832,7 +8887,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="7"/>
       <c r="I91" s="19" t="str">
-        <f t="shared" ref="I91:I111" si="1">IF(AND(E91="",F91=""),"",I90+E91-F91)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -8845,7 +8900,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="7"/>
       <c r="I92" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I92:I112" si="1">IF(AND(E92="",F92=""),"",I91+E92-F92)</f>
         <v/>
       </c>
     </row>
@@ -9097,8 +9152,17 @@
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="9"/>
@@ -9311,6 +9375,10 @@
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="9"/>
+      <c r="C166" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9325,10 +9393,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0DAEAF-B2AF-4FBC-BF7D-CCC54075D5D8}">
-  <dimension ref="A1:J157"/>
+  <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9356,10 +9424,10 @@
       <c r="J1" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
@@ -9373,16 +9441,16 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -9569,147 +9637,190 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
+        <v>44359</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="23">
+        <v>9059.52</v>
+      </c>
+      <c r="F15" s="24">
+        <v>3019.84</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="25">
+        <v>3019.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>44365</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="23">
+        <v>2853.09</v>
+      </c>
+      <c r="F16" s="24">
+        <v>951.03</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="25">
+        <v>951.03</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>44377</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="23">
+        <v>9195.06</v>
+      </c>
+      <c r="F17" s="24">
+        <v>1532.51</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="25">
+        <v>1532.51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
+        <v>44377</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="23">
+        <v>3347.23</v>
+      </c>
+      <c r="F18" s="24">
+        <v>1115.74</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="25">
+        <v>1115.74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
         <v>44402</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E19" s="23">
         <v>769.1</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F19" s="24">
         <v>769.1</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37" t="str">
-        <f>IF(AND(E16="",F16=""),"",I15+E16-F16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41">
-        <f>SUM(E9:E15)</f>
-        <v>99762.180000000008</v>
-      </c>
-      <c r="F17" s="43">
-        <f>SUM(F9:F15)</f>
-        <v>16313.35</v>
-      </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45">
-        <f>SUM(I9:I16)</f>
-        <v>14644.25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="30"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="19" t="str">
-        <f t="shared" ref="I19:I82" si="0">IF(AND(E19="",F19=""),"",I18+E19-F19)</f>
-        <v/>
-      </c>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B21" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="53">
-        <f>SUM(F9-2000,F10,F11-250,F12,F14/3)</f>
-        <v>10009.373333333333</v>
-      </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="74"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="19"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37" t="str">
+        <f>IF(AND(E20="",F20=""),"",I19+E20-F20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41">
+        <f>SUM(E9:E19)</f>
+        <v>124217.08</v>
+      </c>
+      <c r="F21" s="43">
+        <f>SUM(F9:F19)</f>
+        <v>22932.469999999998</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45">
+        <f>SUM(I9:I20)</f>
+        <v>21263.17</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="7"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="7"/>
       <c r="I23" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="53">
-        <f>SUM(2000,F15,F13,F14/3,F11-450)</f>
-        <v>5147.8033333333333</v>
-      </c>
-      <c r="D24" s="51"/>
+        <f t="shared" ref="I23:I86" si="0">IF(AND(E23="",F23=""),"",I22+E23-F23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -9719,22 +9830,26 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
+    <row r="25" spans="2:9" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B25" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="53">
+        <f>SUM(F9-2000,F10,F11-250,F12,F14/3,F15,F19,F17,F18)</f>
+        <v>16446.563333333335</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="E25" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="77"/>
       <c r="G25" s="11"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="7"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
@@ -9746,8 +9861,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="7"/>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
@@ -9758,10 +9873,15 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
+    <row r="28" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="53">
+        <f>SUM(2000,F13,F14/3,F11-450,F16)</f>
+        <v>5329.7333333333327</v>
+      </c>
+      <c r="D28" s="51"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -9772,8 +9892,8 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="7"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
@@ -10482,7 +10602,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="7"/>
       <c r="I83" s="19" t="str">
-        <f t="shared" ref="I83:I103" si="1">IF(AND(E83="",F83=""),"",I82+E83-F83)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -10495,7 +10615,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="7"/>
       <c r="I84" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -10508,7 +10628,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="7"/>
       <c r="I85" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -10521,7 +10641,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="7"/>
       <c r="I86" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -10534,7 +10654,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="7"/>
       <c r="I87" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I87:I107" si="1">IF(AND(E87="",F87=""),"",I86+E87-F87)</f>
         <v/>
       </c>
     </row>
@@ -10747,20 +10867,56 @@
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="9"/>
@@ -10961,12 +11117,28 @@
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10978,7 +11150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA3BA41-BCFA-47EA-B480-8B6D4D2F7D08}">
   <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -11007,10 +11179,10 @@
       <c r="J1" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
@@ -11024,16 +11196,16 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -11253,10 +11425,10 @@
         <v>7461.8133333333344</v>
       </c>
       <c r="D18" s="51"/>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="74"/>
+      <c r="F18" s="77"/>
       <c r="G18" s="11"/>
       <c r="H18" s="7"/>
       <c r="I18" s="19"/>
@@ -12562,10 +12734,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6216211A-72D0-48E3-A947-A660DB68429A}">
-  <dimension ref="A1:J152"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12593,10 +12765,10 @@
       <c r="J1" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
@@ -12610,16 +12782,16 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -12676,149 +12848,173 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
+        <v>44349</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="23">
+        <v>3980</v>
+      </c>
+      <c r="F10" s="24">
+        <v>995.99</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="25">
+        <v>995.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>44356</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="23">
+        <v>10300</v>
+      </c>
+      <c r="F11" s="24">
+        <v>3433.33</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="25">
+        <v>3433.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
         <v>44464</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E12" s="23">
         <v>769.1</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F12" s="24">
         <v>769.1</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37" t="str">
-        <f>IF(AND(E11="",F11=""),"",I10+E11-F11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37" t="str">
+        <f>IF(AND(E13="",F13=""),"",I12+E13-F13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41">
-        <f>SUM(E9:E10)</f>
-        <v>71879.100000000006</v>
-      </c>
-      <c r="F12" s="43">
-        <f>SUM(F9:F10)</f>
-        <v>7879.1</v>
-      </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45">
-        <f>SUM(I9:I10)</f>
-        <v>7110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="19" t="str">
-        <f t="shared" ref="I14:I77" si="0">IF(AND(E14="",F14=""),"",I13+E14-F14)</f>
-        <v/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41">
+        <f>SUM(E9:E12)</f>
+        <v>86159.1</v>
+      </c>
+      <c r="F14" s="43">
+        <f>SUM(F9:F12)</f>
+        <v>12308.42</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45">
+        <f>SUM(I9:I12)</f>
+        <v>11539.32</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="51"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="I16" s="19" t="str">
+        <f t="shared" ref="I16:I79" si="0">IF(AND(E16="",F16=""),"",I15+E16-F16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="76"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="10"/>
+      <c r="I17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="51"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="79"/>
       <c r="G19" s="11"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="7"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
@@ -12829,10 +13025,12 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
+    <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -12843,8 +13041,8 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="7"/>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
@@ -13579,7 +13777,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="7"/>
       <c r="I78" s="19" t="str">
-        <f t="shared" ref="I78:I98" si="1">IF(AND(E78="",F78=""),"",I77+E78-F78)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -13592,7 +13790,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="7"/>
       <c r="I79" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -13605,7 +13803,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="7"/>
       <c r="I80" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I80:I100" si="1">IF(AND(E80="",F80=""),"",I79+E80-F80)</f>
         <v/>
       </c>
     </row>
@@ -13844,12 +14042,30 @@
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="9"/>
@@ -14058,12 +14274,20 @@
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tarjeta naranja.xlsx
+++ b/Tarjeta naranja.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genes\Documents\MELINA\Tarjetas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B917E813-84C1-40FD-AFAC-9C56BA05BA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05E9122-9603-4C5E-B2C6-48DBE3547564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="105">
   <si>
     <t>Fecha</t>
   </si>
@@ -317,6 +317,30 @@
   </si>
   <si>
     <t>Municipalidad</t>
+  </si>
+  <si>
+    <t>remera talleres</t>
+  </si>
+  <si>
+    <t>1 de 5 (Z)</t>
+  </si>
+  <si>
+    <t>Tienda talleres</t>
+  </si>
+  <si>
+    <t>2 de 6</t>
+  </si>
+  <si>
+    <t>2 de 5 (Z)</t>
+  </si>
+  <si>
+    <t>Mercamax Gaseosas</t>
+  </si>
+  <si>
+    <t>3 de 6</t>
+  </si>
+  <si>
+    <t>3 de 5 (Z)</t>
   </si>
 </sst>
 </file>
@@ -9393,10 +9417,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0DAEAF-B2AF-4FBC-BF7D-CCC54075D5D8}">
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9741,128 +9765,141 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
-        <v>44402</v>
+        <v>44397</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="23">
+        <v>4680</v>
+      </c>
+      <c r="F19" s="24">
+        <v>936</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <v>44402</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E20" s="23">
         <v>769.1</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F20" s="24">
         <v>769.1</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37" t="str">
-        <f>IF(AND(E20="",F20=""),"",I19+E20-F20)</f>
-        <v/>
-      </c>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37" t="str">
+        <f>IF(AND(E21="",F21=""),"",I20+E21-F21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41">
-        <f>SUM(E9:E19)</f>
-        <v>124217.08</v>
-      </c>
-      <c r="F21" s="43">
-        <f>SUM(F9:F19)</f>
-        <v>22932.469999999998</v>
-      </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45">
-        <f>SUM(I9:I20)</f>
-        <v>21263.17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="30"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41">
+        <f>SUM(E9:E20)</f>
+        <v>128897.08</v>
+      </c>
+      <c r="F22" s="43">
+        <f>SUM(F9:F20)</f>
+        <v>23868.469999999998</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45">
+        <f>SUM(I9:I21)</f>
+        <v>22199.17</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="19" t="str">
-        <f t="shared" ref="I23:I86" si="0">IF(AND(E23="",F23=""),"",I22+E23-F23)</f>
-        <v/>
-      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="7"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="7"/>
       <c r="I24" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B25" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="53">
-        <f>SUM(F9-2000,F10,F11-250,F12,F14/3,F15,F19,F17,F18)</f>
-        <v>16446.563333333335</v>
-      </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="77"/>
+        <f t="shared" ref="I24:I87" si="0">IF(AND(E24="",F24=""),"",I23+E24-F24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
+      <c r="I25" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B26" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="53">
+        <f>SUM(F9-2000,F10,F11-250,F12,F14/3,F15,F20,F17,F18,F19)</f>
+        <v>17382.563333333335</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="77"/>
       <c r="G26" s="11"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="7"/>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
@@ -9873,15 +9910,10 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="53">
-        <f>SUM(2000,F13,F14/3,F11-450,F16)</f>
-        <v>5329.7333333333327</v>
-      </c>
-      <c r="D28" s="51"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -9891,10 +9923,15 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="7"/>
+    <row r="29" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="53">
+        <f>SUM(2000,F13,F14/3,F11-450,F16)</f>
+        <v>5329.7333333333327</v>
+      </c>
+      <c r="D29" s="51"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -9905,8 +9942,8 @@
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="7"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
@@ -10654,7 +10691,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="7"/>
       <c r="I87" s="19" t="str">
-        <f t="shared" ref="I87:I107" si="1">IF(AND(E87="",F87=""),"",I86+E87-F87)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -10667,7 +10704,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="7"/>
       <c r="I88" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I88:I108" si="1">IF(AND(E88="",F88=""),"",I87+E88-F88)</f>
         <v/>
       </c>
     </row>
@@ -10919,8 +10956,17 @@
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="9"/>
@@ -11133,25 +11179,29 @@
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA3BA41-BCFA-47EA-B480-8B6D4D2F7D08}">
-  <dimension ref="A1:J154"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11329,7 +11379,7 @@
         <v>3433.33</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>88</v>
@@ -11340,171 +11390,264 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
+        <v>44359</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="23">
+        <v>9059.52</v>
+      </c>
+      <c r="F13" s="24">
+        <v>3019.84</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="25">
+        <v>3019.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>44365</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="23">
+        <v>2853.09</v>
+      </c>
+      <c r="F14" s="24">
+        <v>951.03</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="25">
+        <v>951.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>44377</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="23">
+        <v>9195.06</v>
+      </c>
+      <c r="F15" s="24">
+        <v>1532.51</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="25">
+        <v>1532.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>44377</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="23">
+        <v>3347.23</v>
+      </c>
+      <c r="F16" s="24">
+        <v>1115.74</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="25">
+        <v>1115.74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>44397</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="23">
+        <v>4680</v>
+      </c>
+      <c r="F17" s="24">
+        <v>936</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
+        <v>44401</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="23">
+        <v>2587.2399999999998</v>
+      </c>
+      <c r="F18" s="24">
+        <v>862.33</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="25">
+        <v>862.33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
+        <v>44406</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="23">
+        <v>3372</v>
+      </c>
+      <c r="F19" s="24">
+        <v>843.75</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="25">
+        <v>843.75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <v>44407</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1409.09</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1409.09</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
         <v>44433</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E21" s="23">
         <v>769.1</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F21" s="24">
         <v>769.1</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41">
-        <f>SUM(E9:E13)</f>
-        <v>88912.180000000008</v>
-      </c>
-      <c r="F14" s="43">
-        <f>SUM(F9:F13)</f>
-        <v>12996.69</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45">
-        <f>SUM(I9:I9)</f>
-        <v>7110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="19" t="str">
-        <f t="shared" ref="I16:I79" si="0">IF(AND(E16="",F16=""),"",I15+E16-F16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B18" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="67">
-        <f>SUM(F9-2000,F10-250,F12/3,F13)</f>
-        <v>7461.8133333333344</v>
-      </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="77"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="66">
-        <f>SUM(F9-5000,F10-450,F11,F12/3)</f>
-        <v>4488.7033333333338</v>
-      </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41">
+        <f>SUM(E9:E21)</f>
+        <v>125415.41</v>
+      </c>
+      <c r="F22" s="43">
+        <f>SUM(F9:F21)</f>
+        <v>23666.980000000003</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45">
+        <f>SUM(I9:I21)</f>
+        <v>21488.590000000004</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
       <c r="E24" s="10"/>
@@ -11512,13 +11655,13 @@
       <c r="G24" s="11"/>
       <c r="H24" s="7"/>
       <c r="I24" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I24:I87" si="0">IF(AND(E24="",F24=""),"",I23+E24-F24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="7"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
@@ -11529,22 +11672,26 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
+    <row r="26" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B26" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="67">
+        <f>SUM(F9-2000,F10-250,F12/3,F21,F13,F15,F16,F17,F18)</f>
+        <v>14928.233333333335</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="77"/>
       <c r="G26" s="11"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="7"/>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
@@ -11556,8 +11703,8 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="7"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
@@ -11568,10 +11715,15 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
+    <row r="29" spans="2:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="66">
+        <f>SUM(2000,F10-450,F11,F12/3,F14,F19,F20)</f>
+        <v>7582.5733333333337</v>
+      </c>
+      <c r="D29" s="51"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -11582,8 +11734,8 @@
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="7"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
@@ -12240,7 +12392,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="7"/>
       <c r="I80" s="19" t="str">
-        <f t="shared" ref="I80:I100" si="1">IF(AND(E80="",F80=""),"",I79+E80-F80)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12253,7 +12405,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="7"/>
       <c r="I81" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12266,7 +12418,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="7"/>
       <c r="I82" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12279,7 +12431,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="7"/>
       <c r="I83" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12292,7 +12444,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="7"/>
       <c r="I84" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12305,7 +12457,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="7"/>
       <c r="I85" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12318,7 +12470,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="7"/>
       <c r="I86" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12331,7 +12483,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="7"/>
       <c r="I87" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12344,7 +12496,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="7"/>
       <c r="I88" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I88:I108" si="1">IF(AND(E88="",F88=""),"",I87+E88-F88)</f>
         <v/>
       </c>
     </row>
@@ -12505,36 +12657,108 @@
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="9"/>
@@ -12719,25 +12943,57 @@
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6216211A-72D0-48E3-A947-A660DB68429A}">
-  <dimension ref="A1:J154"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12874,175 +13130,241 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
-        <v>44356</v>
+        <v>44365</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="23">
-        <v>10300</v>
+        <v>2853.09</v>
       </c>
       <c r="F11" s="24">
-        <v>3433.33</v>
+        <v>951.03</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="I11" s="25">
-        <v>3433.33</v>
+        <v>951.03</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
+        <v>44377</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="23">
+        <v>9195.06</v>
+      </c>
+      <c r="F12" s="24">
+        <v>1532.51</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="25">
+        <v>1532.51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>44377</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="23">
+        <v>3347.23</v>
+      </c>
+      <c r="F13" s="24">
+        <v>1115.74</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="25">
+        <v>1115.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>44397</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="23">
+        <v>4680</v>
+      </c>
+      <c r="F14" s="24">
+        <v>936</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>44401</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="23">
+        <v>2587.2399999999998</v>
+      </c>
+      <c r="F15" s="24">
+        <v>862.33</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="25">
+        <v>862.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>44406</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="23">
+        <v>3372</v>
+      </c>
+      <c r="F16" s="24">
+        <v>843.75</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="25">
+        <v>843.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
         <v>44464</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E17" s="23">
         <v>769.1</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F17" s="24">
         <v>769.1</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="25"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37" t="str">
-        <f>IF(AND(E13="",F13=""),"",I12+E13-F13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37" t="str">
+        <f>IF(AND(E18="",F18=""),"",I17+E18-F18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41">
-        <f>SUM(E9:E12)</f>
-        <v>86159.1</v>
-      </c>
-      <c r="F14" s="43">
-        <f>SUM(F9:F12)</f>
-        <v>12308.42</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45">
-        <f>SUM(I9:I12)</f>
-        <v>11539.32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="19" t="str">
-        <f t="shared" ref="I16:I79" si="0">IF(AND(E16="",F16=""),"",I15+E16-F16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="51"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="79"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="19"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41">
+        <f>SUM(E9:E17)</f>
+        <v>101893.72</v>
+      </c>
+      <c r="F19" s="43">
+        <f>SUM(F9:F17)</f>
+        <v>15116.45</v>
+      </c>
+      <c r="G19" s="42"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45">
+        <f>SUM(I9:I17)</f>
+        <v>14347.35</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="51"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="7"/>
       <c r="I21" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I21:I84" si="0">IF(AND(E21="",F21=""),"",I20+E21-F21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="7"/>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
@@ -13053,35 +13375,35 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="10"/>
+    <row r="23" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="53">
+        <f>SUM(F9-2000,F13,F12,F14,F15)</f>
+        <v>9556.58</v>
+      </c>
+      <c r="D23" s="51"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
+      <c r="E24" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="79"/>
       <c r="G24" s="11"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="7"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
@@ -13092,10 +13414,15 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
+    <row r="26" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="53">
+        <f>SUM(2000,F10,F11,F16)</f>
+        <v>4790.7699999999995</v>
+      </c>
+      <c r="D26" s="51"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -13106,8 +13433,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="7"/>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
@@ -13803,7 +14130,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="7"/>
       <c r="I80" s="19" t="str">
-        <f t="shared" ref="I80:I100" si="1">IF(AND(E80="",F80=""),"",I79+E80-F80)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -13816,7 +14143,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="7"/>
       <c r="I81" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -13829,7 +14156,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="7"/>
       <c r="I82" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -13842,7 +14169,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="7"/>
       <c r="I83" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -13855,7 +14182,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="7"/>
       <c r="I84" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -13868,7 +14195,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="7"/>
       <c r="I85" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I85:I105" si="1">IF(AND(E85="",F85=""),"",I84+E85-F85)</f>
         <v/>
       </c>
     </row>
@@ -14068,24 +14395,69 @@
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="9"/>
@@ -14282,12 +14654,32 @@
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
